--- a/biology/Biochimie/Matière_épuisée/Matière_épuisée.xlsx
+++ b/biology/Biochimie/Matière_épuisée/Matière_épuisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mati%C3%A8re_%C3%A9puis%C3%A9e</t>
+          <t>Matière_épuisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une matière épuisée est le produit restant après l'extraction d'huile essentielle[1]. Exemples : la vanille épuisée[1],[2],[3], le poivre épuisé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une matière épuisée est le produit restant après l'extraction d'huile essentielle. Exemples : la vanille épuisée le poivre épuisé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mati%C3%A8re_%C3%A9puis%C3%A9e</t>
+          <t>Matière_épuisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intérêt des matières épuisées réside dans le fait qu'elles sont beaucoup moins chères que leur équivalent non épuisé[1]. Mais elles peuvent être dangereuses car l'extraction réalisée à l'aide de solvant n'est pas anodine[1], les matières épuisées pouvant retenir une proportion importante de solvant. La vanille peut être épuisée à l'hexane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intérêt des matières épuisées réside dans le fait qu'elles sont beaucoup moins chères que leur équivalent non épuisé. Mais elles peuvent être dangereuses car l'extraction réalisée à l'aide de solvant n'est pas anodine, les matières épuisées pouvant retenir une proportion importante de solvant. La vanille peut être épuisée à l'hexane.
 Grâce à un ingrédient épuisé, visuellement le produit a l'apparence de contenir l'ingrédient, et l'emballage peut mettre en avant l'ingrédient. On pourra ainsi voir la mention « vanille » écrite en gros, et dans la liste des ingrédients en petit « vanille épuisée ».
 </t>
         </is>
